--- a/InputFiles/EXLS/Dist/DestTest-DataChange.xlsx
+++ b/InputFiles/EXLS/Dist/DestTest-DataChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\DataComparePy\InputFiles\EXLS\Dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF819368-3651-4807-AA25-7B9DE2EF4934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B521838-3291-448F-A40A-755EE495CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,22 +31,22 @@
     <t>Male</t>
   </si>
   <si>
-    <t>EmpID</t>
+    <t>Shan</t>
   </si>
   <si>
-    <t>EmpName</t>
+    <t>Emp_ID</t>
   </si>
   <si>
-    <t>EmpAge</t>
+    <t>Emp_Name</t>
   </si>
   <si>
-    <t>EmpSex</t>
+    <t>Emp_Age</t>
   </si>
   <si>
-    <t>EmpSalary</t>
+    <t>Emp_Sex</t>
   </si>
   <si>
-    <t>Shan</t>
+    <t>Emp_Salary</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
   <dimension ref="A1:E1226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,19 +908,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>93</v>
